--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2267765.266893048</v>
+        <v>2236572.385411988</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>502109.516089997</v>
+        <v>747363.4475944065</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6165603.330802532</v>
+        <v>6165603.330802541</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7405706.071419492</v>
+        <v>7405706.071419491</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>124.3804180042749</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>81.02088256027824</v>
       </c>
     </row>
     <row r="3">
@@ -749,16 +749,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>75.74049007758155</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>79.35573680956007</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>84.31882417064588</v>
+        <v>139.0040357308909</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>374.3480475354332</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>82.25230838531201</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -952,10 +952,10 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>13.8899527560388</v>
       </c>
       <c r="T6" t="n">
-        <v>158.7034744856297</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1043,7 +1043,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>74.50050583474547</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>48.79589417666584</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>253.3602250972015</v>
       </c>
       <c r="F8" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>139.8674012330295</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1220,16 +1220,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>50.42174264793019</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1274,13 +1274,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>120.1940118885287</v>
       </c>
     </row>
     <row r="10">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>43.57406527516211</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>257.4748975461493</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
@@ -1384,7 +1384,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>252.305926837283</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>156.7603621788406</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>109.6085360990542</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447565</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>217.3460863881818</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>252.305926837283</v>
       </c>
       <c r="V14" t="n">
-        <v>309.4880835163073</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>309.6900104994113</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>46.49806561112344</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S15" t="n">
         <v>147.4755605575067</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>58.32752578544313</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138467</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>60.65423521442611</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>390.8378626949542</v>
@@ -1858,10 +1858,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H17" t="n">
-        <v>139.1563079494258</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>222.499531710645</v>
       </c>
       <c r="Y17" t="n">
         <v>389.6064368699203</v>
@@ -1943,7 +1943,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I18" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.49806561112344</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S18" t="n">
         <v>147.4755605575067</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>140.32293915197</v>
       </c>
       <c r="S19" t="n">
-        <v>208.5868485504649</v>
+        <v>139.2184542448427</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>98.55141553731417</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>170.2314323163442</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>410.0096787829314</v>
@@ -2098,7 +2098,7 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H20" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>311.590473896874</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I21" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.49806561112344</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S21" t="n">
         <v>147.4755605575067</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.93105267502698</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>218.5212637761711</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,16 +2323,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>6.159763481725846</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H23" t="n">
         <v>317.7406176577446</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>17.64651753167263</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.0919149789806</v>
@@ -2377,13 +2377,13 @@
         <v>252.2446781610247</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>63.84106413478859</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -2484,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>47.07564323722281</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>127.2809062519456</v>
       </c>
       <c r="J25" t="n">
-        <v>23.0634383904742</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.81465648054001</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>336.1951760485559</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>346.6854497140103</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>390.8378626949542</v>
@@ -2572,10 +2572,10 @@
         <v>410.7953871538391</v>
       </c>
       <c r="H26" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U26" t="n">
         <v>252.2446781610247</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3.896270148845106</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>229.781100506236</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
@@ -2809,7 +2809,7 @@
         <v>410.7953871538391</v>
       </c>
       <c r="H29" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>126.8477381573318</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>119.1032610695756</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T29" t="n">
-        <v>217.0919149789806</v>
+        <v>96.00856998221218</v>
       </c>
       <c r="U29" t="n">
         <v>252.2446781610247</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,13 +2967,13 @@
         <v>166.7157954483816</v>
       </c>
       <c r="H31" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>127.2809062519456</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.0634383904742</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T31" t="n">
-        <v>199.2791436314696</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>252.3054043278192</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
@@ -3040,7 +3040,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.7953871538391</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>17.64651753167263</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>159.2066729054946</v>
@@ -3085,13 +3085,13 @@
         <v>217.0919149789806</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>275.8595519954264</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>232.0478409851978</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14.20482080005207</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.7157954483816</v>
@@ -3207,10 +3207,10 @@
         <v>153.2022726584912</v>
       </c>
       <c r="I34" t="n">
-        <v>127.2809062519456</v>
+        <v>22.6949952697025</v>
       </c>
       <c r="J34" t="n">
-        <v>23.0634383904742</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>248.0020052478347</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>347.2296180923424</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I35" t="n">
         <v>126.8477381573318</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>17.64651753167263</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>159.2066729054946</v>
@@ -3325,16 +3325,16 @@
         <v>252.2446781610247</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>66.32865080611451</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>153.2022726584912</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>127.2809062519456</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>160.1184380067475</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>84.22893804738695</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H38" t="n">
         <v>317.7406176577446</v>
       </c>
       <c r="I38" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>12.5245116825529</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>140.9751651486</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>21.64274512548194</v>
       </c>
       <c r="G40" t="n">
         <v>166.7157954483816</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.0629810450389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>7.322715868437153</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>17.64651753167263</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>252.2446781610247</v>
@@ -3802,7 +3802,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
@@ -3839,7 +3839,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I42" t="n">
-        <v>46.55860261786524</v>
+        <v>46.55860261786525</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21.06466113568249</v>
+        <v>21.0646611356825</v>
       </c>
       <c r="S42" t="n">
         <v>139.8667397074436</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>127.2809062519456</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.34728551612864</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>190.4705318490175</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,10 +3985,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>81.65239417175357</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>217.0919149789806</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>244.8688512916325</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -4137,10 +4137,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>15.15848464128353</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>40.0624167645216</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>988.6615350532339</v>
+        <v>1213.742068589895</v>
       </c>
       <c r="C2" t="n">
-        <v>988.6615350532339</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="D2" t="n">
-        <v>988.6615350532339</v>
+        <v>458.984345149926</v>
       </c>
       <c r="E2" t="n">
-        <v>593.8758151593408</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F2" t="n">
-        <v>179.7246244695112</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G2" t="n">
-        <v>167.6610419641032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
-        <v>167.6610419641032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119923</v>
@@ -4357,25 +4357,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S2" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T2" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U2" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V2" t="n">
-        <v>1764.233530955903</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="W2" t="n">
-        <v>1764.233530955903</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="X2" t="n">
-        <v>1382.203390477396</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="Y2" t="n">
-        <v>988.6615350532339</v>
+        <v>1607.785608107914</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>786.6432185531175</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C3" t="n">
-        <v>624.9395457940723</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D3" t="n">
-        <v>486.1009087842844</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E3" t="n">
-        <v>339.0728988411556</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F3" t="n">
-        <v>339.0728988411556</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G3" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>407.8461012713149</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>892.8794547815413</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N3" t="n">
-        <v>1404.145100904663</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O3" t="n">
-        <v>1796.345051688814</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P3" t="n">
-        <v>2098.440970964512</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S3" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.707259527051</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U3" t="n">
-        <v>1806.212467125361</v>
+        <v>1772.586122412246</v>
       </c>
       <c r="V3" t="n">
-        <v>1577.816844573695</v>
+        <v>1544.19049986058</v>
       </c>
       <c r="W3" t="n">
-        <v>1336.500975807005</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X3" t="n">
-        <v>1138.583987684799</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y3" t="n">
-        <v>946.0626613343784</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.02425610119923</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="C4" t="n">
         <v>42.02425610119923</v>
@@ -4515,25 +4515,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>42.02425610119923</v>
+        <v>433.6753844472419</v>
       </c>
       <c r="V4" t="n">
-        <v>42.02425610119923</v>
+        <v>433.6753844472419</v>
       </c>
       <c r="W4" t="n">
-        <v>42.02425610119923</v>
+        <v>433.6753844472419</v>
       </c>
       <c r="X4" t="n">
-        <v>42.02425610119923</v>
+        <v>433.6753844472419</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.02425610119923</v>
+        <v>211.6402256395189</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1007.121986527115</v>
+        <v>818.9563486960019</v>
       </c>
       <c r="C5" t="n">
-        <v>1007.121986527115</v>
+        <v>437.0225900288092</v>
       </c>
       <c r="D5" t="n">
-        <v>1007.121986527115</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E5" t="n">
-        <v>1007.121986527115</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F5" t="n">
-        <v>592.9707958372853</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G5" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>114.0228003740044</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187872</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L5" t="n">
-        <v>702.0485455037334</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N5" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O5" t="n">
         <v>1778.623654917371</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2010.574518555815</v>
+        <v>2018.129665276818</v>
       </c>
       <c r="S5" t="n">
-        <v>1823.345543186168</v>
+        <v>1830.900689907172</v>
       </c>
       <c r="T5" t="n">
-        <v>1598.98659691718</v>
+        <v>1606.541743638183</v>
       </c>
       <c r="U5" t="n">
-        <v>1344.101260631174</v>
+        <v>1606.541743638183</v>
       </c>
       <c r="V5" t="n">
-        <v>1007.121986527115</v>
+        <v>1606.541743638183</v>
       </c>
       <c r="W5" t="n">
-        <v>1007.121986527115</v>
+        <v>1606.541743638183</v>
       </c>
       <c r="X5" t="n">
-        <v>1007.121986527115</v>
+        <v>1606.541743638183</v>
       </c>
       <c r="Y5" t="n">
-        <v>1007.121986527115</v>
+        <v>1212.999888214021</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>921.3370166032433</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C6" t="n">
-        <v>759.6333438441981</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D6" t="n">
-        <v>620.7947068344101</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E6" t="n">
-        <v>473.7666968912813</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F6" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G6" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M6" t="n">
-        <v>1122.37000734173</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N6" t="n">
-        <v>1633.635653464852</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O6" t="n">
-        <v>2025.835604249003</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P6" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
@@ -4673,25 +4673,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>2101.212805059961</v>
+        <v>2087.182549750831</v>
       </c>
       <c r="T6" t="n">
-        <v>1940.906265175487</v>
+        <v>1898.497445916817</v>
       </c>
       <c r="U6" t="n">
-        <v>1940.906265175487</v>
+        <v>1680.002653515127</v>
       </c>
       <c r="V6" t="n">
-        <v>1712.510642623821</v>
+        <v>1451.607030963461</v>
       </c>
       <c r="W6" t="n">
-        <v>1471.194773857131</v>
+        <v>1210.291162196771</v>
       </c>
       <c r="X6" t="n">
-        <v>1273.277785734925</v>
+        <v>1012.374174074565</v>
       </c>
       <c r="Y6" t="n">
-        <v>1080.756459384504</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="C7" t="n">
-        <v>42.02425610119923</v>
+        <v>117.2772922979118</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02425610119923</v>
+        <v>117.2772922979118</v>
       </c>
       <c r="E7" t="n">
-        <v>42.02425610119923</v>
+        <v>117.2772922979118</v>
       </c>
       <c r="F7" t="n">
         <v>42.02425610119923</v>
@@ -4758,19 +4758,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V7" t="n">
-        <v>313.3481969055543</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W7" t="n">
-        <v>264.0594149089221</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X7" t="n">
-        <v>264.0594149089221</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1772.703626424629</v>
+        <v>1429.803687762007</v>
       </c>
       <c r="C8" t="n">
-        <v>1772.703626424629</v>
+        <v>1429.803687762007</v>
       </c>
       <c r="D8" t="n">
-        <v>1772.703626424629</v>
+        <v>1056.97972298923</v>
       </c>
       <c r="E8" t="n">
-        <v>1377.917906530736</v>
+        <v>801.0603036991276</v>
       </c>
       <c r="F8" t="n">
-        <v>963.766715840906</v>
+        <v>386.9091130092979</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187876</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L8" t="n">
-        <v>702.0485455037339</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N8" t="n">
         <v>1473.619070444537</v>
@@ -4828,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>1772.703626424629</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U8" t="n">
-        <v>1772.703626424629</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V8" t="n">
-        <v>1772.703626424629</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W8" t="n">
-        <v>1772.703626424629</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="X8" t="n">
-        <v>1772.703626424629</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="Y8" t="n">
-        <v>1772.703626424629</v>
+        <v>1429.803687762007</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>774.3090066601145</v>
       </c>
       <c r="C9" t="n">
-        <v>300.1762316006536</v>
+        <v>612.6053339010692</v>
       </c>
       <c r="D9" t="n">
-        <v>161.3375945908657</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="E9" t="n">
-        <v>110.4065414111382</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>110.4065414111382</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4883,16 +4883,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
         <v>1249.145305214519</v>
@@ -4922,13 +4922,13 @@
         <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>933.7284494413755</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="F10" t="n">
         <v>42.02425610119923</v>
@@ -4995,19 +4995,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>286.8932618362315</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1492.690446916733</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="C11" t="n">
-        <v>1232.614792829714</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="D11" t="n">
-        <v>859.7908280569375</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E11" t="n">
-        <v>465.0051081630443</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F11" t="n">
-        <v>50.85391747321461</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G11" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H11" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532633</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
-        <v>443.1860302481631</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L11" t="n">
-        <v>850.7433998907118</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
@@ -5062,31 +5062,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R11" t="n">
-        <v>2542.69587366073</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.258524637048</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="T11" t="n">
-        <v>2141.588457987564</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="U11" t="n">
-        <v>1886.733986434753</v>
+        <v>2221.438200560643</v>
       </c>
       <c r="V11" t="n">
-        <v>1886.733986434753</v>
+        <v>2221.438200560643</v>
       </c>
       <c r="W11" t="n">
-        <v>1886.733986434753</v>
+        <v>2221.438200560643</v>
       </c>
       <c r="X11" t="n">
-        <v>1886.733986434753</v>
+        <v>2063.094400379995</v>
       </c>
       <c r="Y11" t="n">
-        <v>1886.733986434753</v>
+        <v>1669.552544955833</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C12" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D12" t="n">
         <v>620.3170860732707</v>
@@ -5108,7 +5108,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F12" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G12" t="n">
         <v>210.0732042050868</v>
@@ -5117,34 +5117,34 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I12" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J12" t="n">
-        <v>130.2226992162549</v>
+        <v>93.92576170933199</v>
       </c>
       <c r="K12" t="n">
-        <v>392.3832078845233</v>
+        <v>93.92576170933199</v>
       </c>
       <c r="L12" t="n">
-        <v>802.133840764949</v>
+        <v>503.6763945897577</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.13435747776</v>
+        <v>1039.972571370858</v>
       </c>
       <c r="N12" t="n">
-        <v>1848.400003600882</v>
+        <v>1603.857815159543</v>
       </c>
       <c r="O12" t="n">
-        <v>2240.599954385033</v>
+        <v>2044.19441773485</v>
       </c>
       <c r="P12" t="n">
-        <v>2542.69587366073</v>
+        <v>2384.924243875136</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.69587366073</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.728130619191</v>
+        <v>2495.728130619192</v>
       </c>
       <c r="S12" t="n">
         <v>2346.762917934841</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>348.3900938121795</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C13" t="n">
-        <v>348.3900938121795</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D13" t="n">
-        <v>348.3900938121795</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E13" t="n">
-        <v>348.3900938121795</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F13" t="n">
-        <v>348.3900938121795</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G13" t="n">
-        <v>348.3900938121795</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H13" t="n">
-        <v>237.6744007828319</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J13" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K13" t="n">
         <v>104.1644935890949</v>
@@ -5220,31 +5220,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q13" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R13" t="n">
-        <v>559.0838802267906</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S13" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T13" t="n">
-        <v>348.3900938121795</v>
+        <v>492.4305776831415</v>
       </c>
       <c r="U13" t="n">
-        <v>348.3900938121795</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="V13" t="n">
-        <v>348.3900938121795</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="W13" t="n">
-        <v>348.3900938121795</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="X13" t="n">
-        <v>348.3900938121795</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="Y13" t="n">
-        <v>348.3900938121795</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>805.6116409131837</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="C14" t="n">
-        <v>423.677882245991</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="D14" t="n">
-        <v>50.85391747321461</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E14" t="n">
-        <v>50.85391747321461</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F14" t="n">
-        <v>50.85391747321461</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G14" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H14" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J14" t="n">
         <v>154.9459054532635</v>
       </c>
       <c r="K14" t="n">
-        <v>443.1860302481633</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L14" t="n">
-        <v>850.7433998907118</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N14" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O14" t="n">
         <v>2124.896977382889</v>
@@ -5299,31 +5299,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R14" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T14" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U14" t="n">
-        <v>2287.841402107919</v>
+        <v>2287.84140210792</v>
       </c>
       <c r="V14" t="n">
-        <v>1975.227176333872</v>
+        <v>1950.862128003861</v>
       </c>
       <c r="W14" t="n">
-        <v>1975.227176333872</v>
+        <v>1588.327197861462</v>
       </c>
       <c r="X14" t="n">
-        <v>1593.197035855365</v>
+        <v>1588.327197861462</v>
       </c>
       <c r="Y14" t="n">
-        <v>1199.655180431203</v>
+        <v>1275.509005437814</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>338.5952780800162</v>
       </c>
       <c r="G15" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050869</v>
       </c>
       <c r="H15" t="n">
         <v>112.1289883137699</v>
       </c>
       <c r="I15" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J15" t="n">
-        <v>93.92576170933199</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K15" t="n">
-        <v>93.92576170933199</v>
+        <v>280.3444700334033</v>
       </c>
       <c r="L15" t="n">
-        <v>503.6763945897577</v>
+        <v>690.095102913829</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.972571370858</v>
+        <v>1226.391279694929</v>
       </c>
       <c r="N15" t="n">
-        <v>1603.857815159543</v>
+        <v>1790.276523483614</v>
       </c>
       <c r="O15" t="n">
-        <v>2044.19441773485</v>
+        <v>2230.613126058921</v>
       </c>
       <c r="P15" t="n">
-        <v>2384.924243875136</v>
+        <v>2532.709045334619</v>
       </c>
       <c r="Q15" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R15" t="n">
         <v>2495.728130619192</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.0838802267905</v>
+        <v>220.4698870115343</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0838802267905</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D16" t="n">
-        <v>559.0838802267905</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E16" t="n">
-        <v>559.0838802267905</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F16" t="n">
-        <v>406.6032252525676</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G16" t="n">
-        <v>347.6865325399988</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H16" t="n">
-        <v>189.8525543540686</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I16" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J16" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K16" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L16" t="n">
-        <v>229.9889654324848</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M16" t="n">
         <v>374.5706761520456</v>
       </c>
       <c r="N16" t="n">
-        <v>518.9490144159676</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O16" t="n">
-        <v>641.3872247924077</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P16" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q16" t="n">
-        <v>700.824222804538</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R16" t="n">
-        <v>559.0838802267905</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S16" t="n">
-        <v>559.0838802267905</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="T16" t="n">
-        <v>559.0838802267905</v>
+        <v>281.7367912685304</v>
       </c>
       <c r="U16" t="n">
-        <v>559.0838802267905</v>
+        <v>220.4698870115343</v>
       </c>
       <c r="V16" t="n">
-        <v>559.0838802267905</v>
+        <v>220.4698870115343</v>
       </c>
       <c r="W16" t="n">
-        <v>559.0838802267905</v>
+        <v>220.4698870115343</v>
       </c>
       <c r="X16" t="n">
-        <v>559.0838802267905</v>
+        <v>220.4698870115343</v>
       </c>
       <c r="Y16" t="n">
-        <v>559.0838802267905</v>
+        <v>220.4698870115343</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1755.110478718549</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="C17" t="n">
-        <v>1373.176720051356</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="D17" t="n">
-        <v>1000.35275527858</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E17" t="n">
-        <v>605.5670353846865</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F17" t="n">
-        <v>191.4158446948568</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G17" t="n">
-        <v>191.4158446948568</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H17" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I17" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J17" t="n">
-        <v>154.9459054532631</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K17" t="n">
-        <v>443.1860302481628</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L17" t="n">
-        <v>850.7433998907113</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M17" t="n">
         <v>1310.379159876956</v>
@@ -5533,34 +5533,34 @@
         <v>2124.896977382889</v>
       </c>
       <c r="P17" t="n">
-        <v>2407.429665198534</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R17" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S17" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T17" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U17" t="n">
-        <v>2542.69587366073</v>
+        <v>2287.84140210792</v>
       </c>
       <c r="V17" t="n">
-        <v>2542.69587366073</v>
+        <v>2287.84140210792</v>
       </c>
       <c r="W17" t="n">
-        <v>2542.69587366073</v>
+        <v>2287.84140210792</v>
       </c>
       <c r="X17" t="n">
-        <v>2542.69587366073</v>
+        <v>2063.094400379995</v>
       </c>
       <c r="Y17" t="n">
-        <v>2149.154018236568</v>
+        <v>1669.552544955833</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I18" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J18" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K18" t="n">
-        <v>68.10001809715453</v>
+        <v>163.2916290783378</v>
       </c>
       <c r="L18" t="n">
-        <v>477.8506509775802</v>
+        <v>529.1134742484535</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.146827758681</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N18" t="n">
         <v>1578.032071547365</v>
@@ -5612,10 +5612,10 @@
         <v>2018.368674122672</v>
       </c>
       <c r="P18" t="n">
-        <v>2359.098500262959</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q18" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R18" t="n">
         <v>2495.728130619192</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.8539174732146</v>
+        <v>220.4698870115343</v>
       </c>
       <c r="C19" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D19" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E19" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F19" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G19" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H19" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I19" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J19" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K19" t="n">
-        <v>104.1644935890948</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L19" t="n">
-        <v>229.9889654324848</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M19" t="n">
         <v>374.5706761520456</v>
       </c>
       <c r="N19" t="n">
-        <v>518.9490144159676</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O19" t="n">
-        <v>641.3872247924077</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P19" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q19" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R19" t="n">
-        <v>583.129747076674</v>
+        <v>583.1297470766741</v>
       </c>
       <c r="S19" t="n">
-        <v>372.4359606620629</v>
+        <v>442.5050458192572</v>
       </c>
       <c r="T19" t="n">
-        <v>372.4359606620629</v>
+        <v>442.5050458192572</v>
       </c>
       <c r="U19" t="n">
-        <v>372.4359606620629</v>
+        <v>442.5050458192572</v>
       </c>
       <c r="V19" t="n">
-        <v>372.4359606620629</v>
+        <v>442.5050458192572</v>
       </c>
       <c r="W19" t="n">
-        <v>372.4359606620629</v>
+        <v>442.5050458192572</v>
       </c>
       <c r="X19" t="n">
-        <v>272.8890762809375</v>
+        <v>442.5050458192572</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.8539174732146</v>
+        <v>220.4698870115343</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2149.154018236568</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="C20" t="n">
-        <v>1977.203076502887</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="D20" t="n">
-        <v>1604.379111730111</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="E20" t="n">
-        <v>1209.593391836218</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F20" t="n">
-        <v>795.442201146388</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G20" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H20" t="n">
         <v>50.85391747321461</v>
@@ -5752,13 +5752,13 @@
         <v>50.85391747321461</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532631</v>
       </c>
       <c r="K20" t="n">
-        <v>443.1860302481633</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L20" t="n">
-        <v>850.7433998907118</v>
+        <v>850.7433998907115</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
@@ -5782,22 +5782,22 @@
         <v>2542.69587366073</v>
       </c>
       <c r="T20" t="n">
-        <v>2542.69587366073</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U20" t="n">
-        <v>2542.69587366073</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="V20" t="n">
-        <v>2542.69587366073</v>
+        <v>1983.046532907187</v>
       </c>
       <c r="W20" t="n">
-        <v>2542.69587366073</v>
+        <v>1668.308680486102</v>
       </c>
       <c r="X20" t="n">
-        <v>2542.69587366073</v>
+        <v>1668.308680486102</v>
       </c>
       <c r="Y20" t="n">
-        <v>2149.154018236568</v>
+        <v>1274.76682506194</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>50.85391747321461</v>
       </c>
       <c r="J21" t="n">
-        <v>99.01697645163583</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K21" t="n">
-        <v>328.5075290118245</v>
+        <v>163.2916290783378</v>
       </c>
       <c r="L21" t="n">
-        <v>694.3293741819401</v>
+        <v>529.1134742484535</v>
       </c>
       <c r="M21" t="n">
-        <v>1179.362727692167</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N21" t="n">
-        <v>1690.628373815289</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O21" t="n">
-        <v>2082.828324599439</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P21" t="n">
-        <v>2384.924243875137</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q21" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R21" t="n">
         <v>2495.728130619192</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1868.679701479523</v>
+        <v>682.5154909927782</v>
       </c>
       <c r="C22" t="n">
-        <v>1868.679701479523</v>
+        <v>682.5154909927782</v>
       </c>
       <c r="D22" t="n">
-        <v>1868.679701479523</v>
+        <v>529.4435978205408</v>
       </c>
       <c r="E22" t="n">
-        <v>1868.679701479523</v>
+        <v>377.4345835818597</v>
       </c>
       <c r="F22" t="n">
-        <v>1868.679701479523</v>
+        <v>377.4345835818597</v>
       </c>
       <c r="G22" t="n">
-        <v>1868.679701479523</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="H22" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I22" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J22" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K22" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L22" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M22" t="n">
-        <v>2192.396460158354</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N22" t="n">
-        <v>2336.774798422276</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O22" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P22" t="n">
-        <v>2542.69587366073</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q22" t="n">
-        <v>2542.69587366073</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R22" t="n">
-        <v>2542.69587366073</v>
+        <v>682.5154909927782</v>
       </c>
       <c r="S22" t="n">
-        <v>2542.69587366073</v>
+        <v>682.5154909927782</v>
       </c>
       <c r="T22" t="n">
-        <v>2542.69587366073</v>
+        <v>682.5154909927782</v>
       </c>
       <c r="U22" t="n">
-        <v>2542.69587366073</v>
+        <v>682.5154909927782</v>
       </c>
       <c r="V22" t="n">
-        <v>2542.69587366073</v>
+        <v>682.5154909927782</v>
       </c>
       <c r="W22" t="n">
-        <v>2321.967324391871</v>
+        <v>682.5154909927782</v>
       </c>
       <c r="X22" t="n">
-        <v>2090.714860287246</v>
+        <v>682.5154909927782</v>
       </c>
       <c r="Y22" t="n">
-        <v>1868.679701479523</v>
+        <v>682.5154909927782</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>905.787574617889</v>
+        <v>2101.485582274549</v>
       </c>
       <c r="C23" t="n">
-        <v>523.8538159506963</v>
+        <v>1719.551823607356</v>
       </c>
       <c r="D23" t="n">
-        <v>517.6318326358218</v>
+        <v>1346.72785883458</v>
       </c>
       <c r="E23" t="n">
-        <v>517.6318326358218</v>
+        <v>1346.72785883458</v>
       </c>
       <c r="F23" t="n">
-        <v>517.6318326358218</v>
+        <v>932.5766681447501</v>
       </c>
       <c r="G23" t="n">
         <v>517.6318326358218</v>
@@ -5989,10 +5989,10 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J23" t="n">
-        <v>236.9749331805679</v>
+        <v>236.974933180568</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6294415950433</v>
+        <v>621.6294415950431</v>
       </c>
       <c r="L23" t="n">
         <v>1148.797379660662</v>
@@ -6013,28 +6013,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R23" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S23" t="n">
-        <v>3248.994681093121</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T23" t="n">
-        <v>3029.70991848809</v>
+        <v>3208.349504788259</v>
       </c>
       <c r="U23" t="n">
-        <v>2774.917314285035</v>
+        <v>2953.556900585203</v>
       </c>
       <c r="V23" t="n">
-        <v>2437.938040180976</v>
+        <v>2953.556900585203</v>
       </c>
       <c r="W23" t="n">
-        <v>2075.403110038577</v>
+        <v>2953.556900585203</v>
       </c>
       <c r="X23" t="n">
-        <v>1693.37296956007</v>
+        <v>2889.07097721673</v>
       </c>
       <c r="Y23" t="n">
-        <v>1299.831114135908</v>
+        <v>2495.529121792568</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J24" t="n">
-        <v>68.55268534786579</v>
+        <v>128.8068318809719</v>
       </c>
       <c r="K24" t="n">
-        <v>298.0432379080544</v>
+        <v>456.4532006825115</v>
       </c>
       <c r="L24" t="n">
-        <v>663.8650830781701</v>
+        <v>954.2576539692056</v>
       </c>
       <c r="M24" t="n">
-        <v>1148.898436588397</v>
+        <v>1593.308485934027</v>
       </c>
       <c r="N24" t="n">
-        <v>1660.164082711519</v>
+        <v>1593.308485934027</v>
       </c>
       <c r="O24" t="n">
-        <v>2046.799941086277</v>
+        <v>2130.133435051681</v>
       </c>
       <c r="P24" t="n">
-        <v>2348.895860361974</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q24" t="n">
         <v>2506.667490147568</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>543.5652234784643</v>
+        <v>396.6794263432827</v>
       </c>
       <c r="C25" t="n">
-        <v>543.5652234784643</v>
+        <v>396.6794263432827</v>
       </c>
       <c r="D25" t="n">
-        <v>543.5652234784643</v>
+        <v>396.6794263432827</v>
       </c>
       <c r="E25" t="n">
-        <v>543.5652234784643</v>
+        <v>244.6704121046015</v>
       </c>
       <c r="F25" t="n">
-        <v>543.5652234784643</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="G25" t="n">
-        <v>375.1654300962606</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="H25" t="n">
-        <v>220.4156597341484</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="I25" t="n">
-        <v>91.84908776248619</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J25" t="n">
         <v>68.55268534786579</v>
@@ -6171,28 +6171,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R25" t="n">
-        <v>996.8528463908115</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="S25" t="n">
-        <v>996.8528463908115</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="T25" t="n">
-        <v>996.8528463908115</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="U25" t="n">
-        <v>996.8528463908115</v>
+        <v>618.7145851510056</v>
       </c>
       <c r="V25" t="n">
-        <v>996.8528463908115</v>
+        <v>618.7145851510056</v>
       </c>
       <c r="W25" t="n">
-        <v>996.8528463908115</v>
+        <v>618.7145851510056</v>
       </c>
       <c r="X25" t="n">
-        <v>765.6003822861873</v>
+        <v>618.7145851510056</v>
       </c>
       <c r="Y25" t="n">
-        <v>543.5652234784643</v>
+        <v>396.6794263432827</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2496.271302168442</v>
+        <v>1642.621754383962</v>
       </c>
       <c r="C26" t="n">
-        <v>2114.337543501249</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="D26" t="n">
-        <v>1741.513578728473</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="E26" t="n">
-        <v>1346.72785883458</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="F26" t="n">
-        <v>932.5766681447501</v>
+        <v>483.4975208567942</v>
       </c>
       <c r="G26" t="n">
-        <v>517.6318326358218</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H26" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I26" t="n">
         <v>68.55268534786579</v>
@@ -6253,25 +6253,25 @@
         <v>3427.63426739329</v>
       </c>
       <c r="S26" t="n">
-        <v>3427.63426739329</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="T26" t="n">
-        <v>3427.63426739329</v>
+        <v>3047.534683671597</v>
       </c>
       <c r="U26" t="n">
-        <v>3172.841663190234</v>
+        <v>2792.742079468542</v>
       </c>
       <c r="V26" t="n">
-        <v>2835.862389086175</v>
+        <v>2792.742079468542</v>
       </c>
       <c r="W26" t="n">
-        <v>2835.862389086175</v>
+        <v>2430.207149326143</v>
       </c>
       <c r="X26" t="n">
-        <v>2835.862389086175</v>
+        <v>2430.207149326143</v>
       </c>
       <c r="Y26" t="n">
-        <v>2835.862389086175</v>
+        <v>2036.665293901981</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J27" t="n">
-        <v>68.55268534786579</v>
+        <v>161.9152146863609</v>
       </c>
       <c r="K27" t="n">
-        <v>298.0432379080544</v>
+        <v>161.9152146863609</v>
       </c>
       <c r="L27" t="n">
-        <v>663.8650830781701</v>
+        <v>161.9152146863609</v>
       </c>
       <c r="M27" t="n">
-        <v>1148.898436588397</v>
+        <v>646.9485681965873</v>
       </c>
       <c r="N27" t="n">
-        <v>1654.599990302126</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O27" t="n">
-        <v>2046.799941086277</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P27" t="n">
-        <v>2348.895860361974</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q27" t="n">
         <v>2506.667490147568</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.1761744713976</v>
+        <v>238.1686548861855</v>
       </c>
       <c r="C28" t="n">
-        <v>225.5602049330779</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="D28" t="n">
-        <v>72.48831176084065</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="E28" t="n">
-        <v>72.48831176084065</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="F28" t="n">
         <v>68.55268534786579</v>
@@ -6408,28 +6408,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R28" t="n">
-        <v>1032.019166068125</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="S28" t="n">
-        <v>1032.019166068125</v>
+        <v>701.2281028169339</v>
       </c>
       <c r="T28" t="n">
-        <v>1032.019166068125</v>
+        <v>470.2707766096562</v>
       </c>
       <c r="U28" t="n">
-        <v>1032.019166068125</v>
+        <v>470.2707766096562</v>
       </c>
       <c r="V28" t="n">
-        <v>1032.019166068125</v>
+        <v>238.1686548861855</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.019166068125</v>
+        <v>238.1686548861855</v>
       </c>
       <c r="X28" t="n">
-        <v>800.7667019635004</v>
+        <v>238.1686548861855</v>
       </c>
       <c r="Y28" t="n">
-        <v>578.7315431557774</v>
+        <v>238.1686548861855</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2496.271302168442</v>
+        <v>1802.497218549459</v>
       </c>
       <c r="C29" t="n">
-        <v>2114.337543501249</v>
+        <v>1420.563459882266</v>
       </c>
       <c r="D29" t="n">
-        <v>1741.513578728473</v>
+        <v>1420.563459882266</v>
       </c>
       <c r="E29" t="n">
-        <v>1346.72785883458</v>
+        <v>1025.777739988373</v>
       </c>
       <c r="F29" t="n">
-        <v>932.5766681447501</v>
+        <v>611.6265492985435</v>
       </c>
       <c r="G29" t="n">
-        <v>517.6318326358218</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="H29" t="n">
         <v>196.6817137896151</v>
@@ -6463,16 +6463,16 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J29" t="n">
-        <v>236.974933180568</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K29" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L29" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M29" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N29" t="n">
         <v>2322.568598257194</v>
@@ -6490,25 +6490,25 @@
         <v>3427.63426739329</v>
       </c>
       <c r="S29" t="n">
-        <v>3307.327943080587</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="T29" t="n">
-        <v>3088.043180475556</v>
+        <v>3169.841092759242</v>
       </c>
       <c r="U29" t="n">
-        <v>2833.250576272501</v>
+        <v>2915.048488556187</v>
       </c>
       <c r="V29" t="n">
-        <v>2496.271302168442</v>
+        <v>2578.069214452128</v>
       </c>
       <c r="W29" t="n">
-        <v>2496.271302168442</v>
+        <v>2578.069214452128</v>
       </c>
       <c r="X29" t="n">
-        <v>2496.271302168442</v>
+        <v>2196.039073973621</v>
       </c>
       <c r="Y29" t="n">
-        <v>2496.271302168442</v>
+        <v>1802.497218549459</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J30" t="n">
-        <v>186.2361291527469</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K30" t="n">
-        <v>415.7266817129356</v>
+        <v>298.0432379080544</v>
       </c>
       <c r="L30" t="n">
-        <v>781.5485268830512</v>
+        <v>298.0432379080544</v>
       </c>
       <c r="M30" t="n">
-        <v>1266.581880393278</v>
+        <v>646.9485681965873</v>
       </c>
       <c r="N30" t="n">
-        <v>1777.8475265164</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O30" t="n">
-        <v>2170.047477300551</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P30" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q30" t="n">
         <v>2506.667490147568</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.5652234784643</v>
+        <v>388.9614929687506</v>
       </c>
       <c r="C31" t="n">
-        <v>543.5652234784643</v>
+        <v>388.9614929687506</v>
       </c>
       <c r="D31" t="n">
-        <v>543.5652234784643</v>
+        <v>388.9614929687506</v>
       </c>
       <c r="E31" t="n">
-        <v>543.5652234784643</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="F31" t="n">
-        <v>543.5652234784643</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="G31" t="n">
-        <v>375.1654300962606</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H31" t="n">
-        <v>220.4156597341484</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I31" t="n">
-        <v>91.84908776248619</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J31" t="n">
         <v>68.55268534786579</v>
@@ -6648,25 +6648,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S31" t="n">
-        <v>1032.019166068125</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="T31" t="n">
-        <v>830.7271017939129</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="U31" t="n">
-        <v>543.5652234784643</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="V31" t="n">
-        <v>543.5652234784643</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="W31" t="n">
-        <v>543.5652234784643</v>
+        <v>572.5168616531305</v>
       </c>
       <c r="X31" t="n">
-        <v>543.5652234784643</v>
+        <v>572.5168616531305</v>
       </c>
       <c r="Y31" t="n">
-        <v>543.5652234784643</v>
+        <v>572.5168616531305</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2496.271302168442</v>
+        <v>2082.120111478612</v>
       </c>
       <c r="C32" t="n">
-        <v>2114.337543501249</v>
+        <v>1700.18635281142</v>
       </c>
       <c r="D32" t="n">
-        <v>1741.513578728473</v>
+        <v>1327.362388038643</v>
       </c>
       <c r="E32" t="n">
-        <v>1346.72785883458</v>
+        <v>932.5766681447501</v>
       </c>
       <c r="F32" t="n">
         <v>932.5766681447501</v>
@@ -6724,28 +6724,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R32" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S32" t="n">
-        <v>3248.994681093121</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="T32" t="n">
-        <v>3029.70991848809</v>
+        <v>3047.534683671597</v>
       </c>
       <c r="U32" t="n">
-        <v>2774.917314285035</v>
+        <v>3047.534683671597</v>
       </c>
       <c r="V32" t="n">
-        <v>2496.271302168442</v>
+        <v>2710.555409567538</v>
       </c>
       <c r="W32" t="n">
-        <v>2496.271302168442</v>
+        <v>2476.163650996632</v>
       </c>
       <c r="X32" t="n">
-        <v>2496.271302168442</v>
+        <v>2476.163650996632</v>
       </c>
       <c r="Y32" t="n">
-        <v>2496.271302168442</v>
+        <v>2476.163650996632</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J33" t="n">
-        <v>68.55268534786579</v>
+        <v>128.8068318809719</v>
       </c>
       <c r="K33" t="n">
-        <v>298.0432379080544</v>
+        <v>358.2973844411606</v>
       </c>
       <c r="L33" t="n">
-        <v>663.8650830781701</v>
+        <v>646.9485681965873</v>
       </c>
       <c r="M33" t="n">
-        <v>1148.898436588397</v>
+        <v>646.9485681965873</v>
       </c>
       <c r="N33" t="n">
-        <v>1660.164082711519</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O33" t="n">
-        <v>2196.989031829172</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P33" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q33" t="n">
         <v>2506.667490147568</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1017.670862229688</v>
+        <v>566.635500977027</v>
       </c>
       <c r="C34" t="n">
-        <v>848.0548926913684</v>
+        <v>566.635500977027</v>
       </c>
       <c r="D34" t="n">
-        <v>848.0548926913684</v>
+        <v>566.635500977027</v>
       </c>
       <c r="E34" t="n">
-        <v>696.0458784526872</v>
+        <v>414.6264867383459</v>
       </c>
       <c r="F34" t="n">
-        <v>543.5652234784643</v>
+        <v>414.6264867383459</v>
       </c>
       <c r="G34" t="n">
-        <v>375.1654300962606</v>
+        <v>246.2266933561422</v>
       </c>
       <c r="H34" t="n">
-        <v>220.4156597341484</v>
+        <v>91.47692299402993</v>
       </c>
       <c r="I34" t="n">
-        <v>91.84908776248619</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J34" t="n">
         <v>68.55268534786579</v>
@@ -6885,25 +6885,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S34" t="n">
-        <v>1032.019166068125</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="T34" t="n">
-        <v>1032.019166068125</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="U34" t="n">
-        <v>1032.019166068125</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="V34" t="n">
-        <v>1032.019166068125</v>
+        <v>566.635500977027</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.019166068125</v>
+        <v>566.635500977027</v>
       </c>
       <c r="X34" t="n">
-        <v>1032.019166068125</v>
+        <v>566.635500977027</v>
       </c>
       <c r="Y34" t="n">
-        <v>1032.019166068125</v>
+        <v>566.635500977027</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2043.894500662957</v>
+        <v>1623.126544047854</v>
       </c>
       <c r="C35" t="n">
-        <v>1793.387424655043</v>
+        <v>1241.192785380661</v>
       </c>
       <c r="D35" t="n">
-        <v>1420.563459882266</v>
+        <v>868.3688206078848</v>
       </c>
       <c r="E35" t="n">
-        <v>1025.777739988373</v>
+        <v>517.6318326358218</v>
       </c>
       <c r="F35" t="n">
-        <v>611.6265492985435</v>
+        <v>517.6318326358218</v>
       </c>
       <c r="G35" t="n">
-        <v>196.6817137896151</v>
+        <v>517.6318326358218</v>
       </c>
       <c r="H35" t="n">
         <v>196.6817137896151</v>
@@ -6937,16 +6937,16 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J35" t="n">
-        <v>236.9749331805679</v>
+        <v>236.974933180568</v>
       </c>
       <c r="K35" t="n">
-        <v>621.6294415950433</v>
+        <v>621.6294415950431</v>
       </c>
       <c r="L35" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M35" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N35" t="n">
         <v>2322.568598257194</v>
@@ -6961,28 +6961,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R35" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S35" t="n">
-        <v>3248.994681093121</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="T35" t="n">
-        <v>3029.70991848809</v>
+        <v>3047.534683671597</v>
       </c>
       <c r="U35" t="n">
-        <v>2774.917314285035</v>
+        <v>2792.742079468542</v>
       </c>
       <c r="V35" t="n">
-        <v>2437.938040180976</v>
+        <v>2792.742079468542</v>
       </c>
       <c r="W35" t="n">
-        <v>2437.938040180976</v>
+        <v>2792.742079468542</v>
       </c>
       <c r="X35" t="n">
-        <v>2437.938040180976</v>
+        <v>2410.711938990035</v>
       </c>
       <c r="Y35" t="n">
-        <v>2437.938040180976</v>
+        <v>2017.170083565873</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J36" t="n">
-        <v>68.55268534786579</v>
+        <v>128.8068318809719</v>
       </c>
       <c r="K36" t="n">
-        <v>68.55268534786579</v>
+        <v>358.2973844411606</v>
       </c>
       <c r="L36" t="n">
-        <v>434.3745305179814</v>
+        <v>358.2973844411606</v>
       </c>
       <c r="M36" t="n">
-        <v>919.4078840282079</v>
+        <v>646.9485681965873</v>
       </c>
       <c r="N36" t="n">
-        <v>1588.767392967308</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O36" t="n">
-        <v>2088.497259344154</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P36" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q36" t="n">
         <v>2506.667490147568</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>458.7008862700752</v>
+        <v>351.8690276816402</v>
       </c>
       <c r="C37" t="n">
-        <v>458.7008862700752</v>
+        <v>351.8690276816402</v>
       </c>
       <c r="D37" t="n">
-        <v>458.7008862700752</v>
+        <v>351.8690276816402</v>
       </c>
       <c r="E37" t="n">
-        <v>391.7022490921817</v>
+        <v>351.8690276816402</v>
       </c>
       <c r="F37" t="n">
-        <v>391.7022490921817</v>
+        <v>351.8690276816402</v>
       </c>
       <c r="G37" t="n">
-        <v>223.3024557099781</v>
+        <v>351.8690276816402</v>
       </c>
       <c r="H37" t="n">
-        <v>68.55268534786579</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="I37" t="n">
         <v>68.55268534786579</v>
@@ -7122,25 +7122,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S37" t="n">
-        <v>1032.019166068125</v>
+        <v>870.283370101713</v>
       </c>
       <c r="T37" t="n">
-        <v>1032.019166068125</v>
+        <v>870.283370101713</v>
       </c>
       <c r="U37" t="n">
-        <v>744.857287752676</v>
+        <v>583.1214917862644</v>
       </c>
       <c r="V37" t="n">
-        <v>744.857287752676</v>
+        <v>583.1214917862644</v>
       </c>
       <c r="W37" t="n">
-        <v>458.7008862700752</v>
+        <v>583.1214917862644</v>
       </c>
       <c r="X37" t="n">
-        <v>458.7008862700752</v>
+        <v>351.8690276816402</v>
       </c>
       <c r="Y37" t="n">
-        <v>458.7008862700752</v>
+        <v>351.8690276816402</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1326.568743219545</v>
+        <v>1666.246853665488</v>
       </c>
       <c r="C38" t="n">
-        <v>1326.568743219545</v>
+        <v>1284.313094998295</v>
       </c>
       <c r="D38" t="n">
-        <v>1326.568743219545</v>
+        <v>1199.233359596894</v>
       </c>
       <c r="E38" t="n">
-        <v>931.7830233256514</v>
+        <v>804.4476397030008</v>
       </c>
       <c r="F38" t="n">
-        <v>517.6318326358218</v>
+        <v>804.4476397030008</v>
       </c>
       <c r="G38" t="n">
-        <v>517.6318326358218</v>
+        <v>389.5028041940724</v>
       </c>
       <c r="H38" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I38" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J38" t="n">
-        <v>236.974933180568</v>
+        <v>236.9749331805679</v>
       </c>
       <c r="K38" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950429</v>
       </c>
       <c r="L38" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M38" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N38" t="n">
         <v>2322.568598257194</v>
       </c>
       <c r="O38" t="n">
-        <v>2818.99054420136</v>
+        <v>2818.990544201361</v>
       </c>
       <c r="P38" t="n">
         <v>3210.517730076022</v>
@@ -7204,22 +7204,22 @@
         <v>3427.63426739329</v>
       </c>
       <c r="T38" t="n">
-        <v>3208.349504788259</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U38" t="n">
-        <v>3195.69848288669</v>
+        <v>3172.841663190234</v>
       </c>
       <c r="V38" t="n">
-        <v>2858.719208782632</v>
+        <v>2835.862389086175</v>
       </c>
       <c r="W38" t="n">
-        <v>2496.184278640233</v>
+        <v>2835.862389086175</v>
       </c>
       <c r="X38" t="n">
-        <v>2114.154138161726</v>
+        <v>2453.832248607669</v>
       </c>
       <c r="Y38" t="n">
-        <v>1720.612282737564</v>
+        <v>2060.290393183507</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="K39" t="n">
-        <v>298.0432379080544</v>
+        <v>396.1990541494053</v>
       </c>
       <c r="L39" t="n">
-        <v>663.8650830781701</v>
+        <v>570.6929653686817</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.915915042992</v>
+        <v>1209.743797333503</v>
       </c>
       <c r="N39" t="n">
-        <v>1812.37162008772</v>
+        <v>1879.103306272604</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.571570871871</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="P39" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q39" t="n">
         <v>2506.667490147568</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>683.8413046587311</v>
+        <v>566.635500977027</v>
       </c>
       <c r="C40" t="n">
-        <v>683.8413046587311</v>
+        <v>566.635500977027</v>
       </c>
       <c r="D40" t="n">
-        <v>541.4421479429735</v>
+        <v>413.5636078047897</v>
       </c>
       <c r="E40" t="n">
-        <v>389.4331337042923</v>
+        <v>413.5636078047897</v>
       </c>
       <c r="F40" t="n">
-        <v>236.9524787300695</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="G40" t="n">
-        <v>68.55268534786579</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="H40" t="n">
         <v>68.55268534786579</v>
@@ -7356,28 +7356,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R40" t="n">
-        <v>905.8764634664541</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S40" t="n">
-        <v>905.8764634664541</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="T40" t="n">
-        <v>905.8764634664541</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="U40" t="n">
-        <v>905.8764634664541</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="V40" t="n">
-        <v>905.8764634664541</v>
+        <v>566.635500977027</v>
       </c>
       <c r="W40" t="n">
-        <v>905.8764634664541</v>
+        <v>566.635500977027</v>
       </c>
       <c r="X40" t="n">
-        <v>905.8764634664541</v>
+        <v>566.635500977027</v>
       </c>
       <c r="Y40" t="n">
-        <v>683.8413046587311</v>
+        <v>566.635500977027</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1299.831114135908</v>
+        <v>1674.36819010771</v>
       </c>
       <c r="C41" t="n">
-        <v>1299.831114135908</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="D41" t="n">
         <v>1292.434431440517</v>
@@ -7411,10 +7411,10 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J41" t="n">
-        <v>236.9749331805679</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K41" t="n">
-        <v>621.6294415950429</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L41" t="n">
         <v>1148.797379660662</v>
@@ -7426,7 +7426,7 @@
         <v>2322.568598257194</v>
       </c>
       <c r="O41" t="n">
-        <v>2818.990544201361</v>
+        <v>2818.99054420136</v>
       </c>
       <c r="P41" t="n">
         <v>3210.517730076022</v>
@@ -7435,28 +7435,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R41" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S41" t="n">
-        <v>3248.994681093121</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T41" t="n">
-        <v>3029.70991848809</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U41" t="n">
-        <v>2774.917314285035</v>
+        <v>3172.841663190234</v>
       </c>
       <c r="V41" t="n">
-        <v>2437.938040180976</v>
+        <v>2835.862389086175</v>
       </c>
       <c r="W41" t="n">
-        <v>2075.403110038577</v>
+        <v>2835.862389086175</v>
       </c>
       <c r="X41" t="n">
-        <v>1693.37296956007</v>
+        <v>2453.832248607669</v>
       </c>
       <c r="Y41" t="n">
-        <v>1299.831114135908</v>
+        <v>2060.290393183507</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G42" t="n">
-        <v>209.5296033666725</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H42" t="n">
         <v>115.581576881063</v>
@@ -7490,22 +7490,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J42" t="n">
-        <v>128.8068318809719</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K42" t="n">
-        <v>292.4791454986618</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="L42" t="n">
-        <v>658.3009906687774</v>
+        <v>243.5842023529635</v>
       </c>
       <c r="M42" t="n">
-        <v>1143.334344179004</v>
+        <v>882.6350343177852</v>
       </c>
       <c r="N42" t="n">
-        <v>1654.599990302126</v>
+        <v>1393.900680440907</v>
       </c>
       <c r="O42" t="n">
-        <v>2046.799941086277</v>
+        <v>1930.725629558561</v>
       </c>
       <c r="P42" t="n">
         <v>2348.895860361974</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2938.864663622269</v>
+        <v>839.6246894529554</v>
       </c>
       <c r="C43" t="n">
-        <v>2769.248694083949</v>
+        <v>670.0087199146357</v>
       </c>
       <c r="D43" t="n">
-        <v>2616.176800911712</v>
+        <v>670.0087199146357</v>
       </c>
       <c r="E43" t="n">
-        <v>2464.167786673031</v>
+        <v>517.9997056759545</v>
       </c>
       <c r="F43" t="n">
-        <v>2464.167786673031</v>
+        <v>365.5190507017316</v>
       </c>
       <c r="G43" t="n">
-        <v>2464.167786673031</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="H43" t="n">
-        <v>2464.167786673031</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="I43" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J43" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K43" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L43" t="n">
-        <v>2733.351086222691</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M43" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N43" t="n">
-        <v>3127.634270415694</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O43" t="n">
-        <v>3298.128711166521</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P43" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q43" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R43" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S43" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T43" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U43" t="n">
-        <v>3344.455191114372</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="V43" t="n">
-        <v>3344.455191114372</v>
+        <v>839.6246894529554</v>
       </c>
       <c r="W43" t="n">
-        <v>3344.455191114372</v>
+        <v>839.6246894529554</v>
       </c>
       <c r="X43" t="n">
-        <v>3344.455191114372</v>
+        <v>839.6246894529554</v>
       </c>
       <c r="Y43" t="n">
-        <v>3122.420032306649</v>
+        <v>839.6246894529554</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1632.247319371558</v>
+        <v>905.787574617889</v>
       </c>
       <c r="C44" t="n">
-        <v>1250.313560704365</v>
+        <v>523.8538159506963</v>
       </c>
       <c r="D44" t="n">
-        <v>877.4895959315886</v>
+        <v>151.0298511779199</v>
       </c>
       <c r="E44" t="n">
-        <v>482.7038760376955</v>
+        <v>151.0298511779199</v>
       </c>
       <c r="F44" t="n">
-        <v>68.55268534786579</v>
+        <v>151.0298511779199</v>
       </c>
       <c r="G44" t="n">
-        <v>68.55268534786579</v>
+        <v>151.0298511779199</v>
       </c>
       <c r="H44" t="n">
-        <v>68.55268534786579</v>
+        <v>151.0298511779199</v>
       </c>
       <c r="I44" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J44" t="n">
-        <v>236.9749331805676</v>
+        <v>236.9749331805679</v>
       </c>
       <c r="K44" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950432</v>
       </c>
       <c r="L44" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M44" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N44" t="n">
         <v>2322.568598257194</v>
       </c>
       <c r="O44" t="n">
-        <v>2818.99054420136</v>
+        <v>2818.990544201361</v>
       </c>
       <c r="P44" t="n">
         <v>3210.517730076022</v>
@@ -7681,19 +7681,19 @@
         <v>3029.70991848809</v>
       </c>
       <c r="U44" t="n">
-        <v>3029.70991848809</v>
+        <v>2774.917314285035</v>
       </c>
       <c r="V44" t="n">
-        <v>3029.70991848809</v>
+        <v>2437.938040180976</v>
       </c>
       <c r="W44" t="n">
-        <v>2667.174988345691</v>
+        <v>2075.403110038577</v>
       </c>
       <c r="X44" t="n">
-        <v>2419.832714313739</v>
+        <v>1693.37296956007</v>
       </c>
       <c r="Y44" t="n">
-        <v>2026.290858889577</v>
+        <v>1299.831114135908</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="K45" t="n">
-        <v>298.0432379080544</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8476911947487</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="M45" t="n">
-        <v>1434.89852315957</v>
+        <v>707.6035173126875</v>
       </c>
       <c r="N45" t="n">
-        <v>1946.164169282692</v>
+        <v>1376.963026251788</v>
       </c>
       <c r="O45" t="n">
-        <v>1946.164169282692</v>
+        <v>1913.787975369441</v>
       </c>
       <c r="P45" t="n">
-        <v>2364.334400086106</v>
+        <v>2331.958206172854</v>
       </c>
       <c r="Q45" t="n">
         <v>2506.667490147568</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.55268534786579</v>
+        <v>561.3019190682962</v>
       </c>
       <c r="C46" t="n">
-        <v>68.55268534786579</v>
+        <v>391.6859495299765</v>
       </c>
       <c r="D46" t="n">
-        <v>68.55268534786579</v>
+        <v>238.6140563577392</v>
       </c>
       <c r="E46" t="n">
-        <v>68.55268534786579</v>
+        <v>238.6140563577392</v>
       </c>
       <c r="F46" t="n">
-        <v>68.55268534786579</v>
+        <v>238.6140563577392</v>
       </c>
       <c r="G46" t="n">
-        <v>68.55268534786579</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="H46" t="n">
         <v>68.55268534786579</v>
@@ -7833,25 +7833,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S46" t="n">
-        <v>991.5520784271937</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T46" t="n">
-        <v>991.5520784271937</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U46" t="n">
-        <v>991.5520784271937</v>
+        <v>744.857287752676</v>
       </c>
       <c r="V46" t="n">
-        <v>991.5520784271937</v>
+        <v>744.857287752676</v>
       </c>
       <c r="W46" t="n">
-        <v>705.3956769445928</v>
+        <v>744.857287752676</v>
       </c>
       <c r="X46" t="n">
-        <v>474.1432128399686</v>
+        <v>744.857287752676</v>
       </c>
       <c r="Y46" t="n">
-        <v>252.1080540322456</v>
+        <v>744.857287752676</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>315.5450020690959</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
@@ -8078,7 +8078,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.5350238645387</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8294,7 +8294,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
@@ -8306,16 +8306,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>623.1450866466196</v>
+        <v>479.0556164367791</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>184.992792701879</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8531,19 +8531,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8768,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>146.5624850364822</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8789,7 +8789,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9005,10 +9005,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>127.2547727032154</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>78.99621350193969</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9026,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>123.8228968248037</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9245,7 +9245,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
-        <v>96.41651716248508</v>
+        <v>225.5696152324477</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9479,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>151.7051261903245</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>225.5696152324477</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9716,7 +9716,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>45.04618048305563</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9728,13 +9728,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O24" t="n">
-        <v>506.4007196967251</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>251.4499858272478</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9953,19 +9953,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>617.5247912835964</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10190,16 +10190,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>467.9135291157135</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10211,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,16 +10427,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>45.04618048305563</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>404.1422858493565</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10448,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10664,28 +10664,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>45.04618048305563</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>12.84888003398906</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>407.0507548398487</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>474.5512345134787</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10901,28 +10901,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>45.04618048305563</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>155.5161437758931</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>621.3168633351104</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11138,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>277.3217384774645</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>289.3749456975091</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11375,13 +11375,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>45.04618048305564</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11390,13 +11390,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>257.5059894867732</v>
+        <v>211.8328486868057</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>120.6395235343714</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>325.5814052293737</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>221.4494768948809</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23433,13 +23433,13 @@
         <v>167.0592210434877</v>
       </c>
       <c r="H13" t="n">
-        <v>46.64710230501666</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3089918374816</v>
+        <v>66.96290544929974</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23484,7 +23484,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>325.5814052293737</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180446</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
         <v>176.6529755334452</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>24.12139784671081</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>79.91642637050904</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
@@ -23664,19 +23664,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>108.7316952580446</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447566</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S16" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3089918374816</v>
+        <v>223.6547566230555</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>186.4250972799479</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I17" t="n">
         <v>156.363858050434</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.73916953180446</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S17" t="n">
         <v>176.6529755334452</v>
@@ -23788,7 +23788,7 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U17" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23797,7 +23797,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>155.7103073630766</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -23913,7 +23913,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J19" t="n">
-        <v>47.34362796447566</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.80540818138467</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>69.36839430562225</v>
       </c>
       <c r="T19" t="n">
         <v>230.1151168515673</v>
@@ -23955,7 +23955,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3885239262638</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>207.8829887641765</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I20" t="n">
         <v>156.363858050434</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.73916953180446</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S20" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>47.31910694410095</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
@@ -24132,25 +24132,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>137.6086505120454</v>
       </c>
       <c r="J22" t="n">
-        <v>47.34362796447566</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.80540818138467</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R22" t="n">
-        <v>140.32293915197</v>
+        <v>98.391886476943</v>
       </c>
       <c r="S22" t="n">
         <v>208.5868485504649</v>
@@ -24189,13 +24189,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>64.77357369160373</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -24211,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>362.9359616433228</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>314.368774938933</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24372,22 +24372,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>103.8802051872578</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.06661909511379</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>202.601877043025</v>
@@ -24420,7 +24420,7 @@
         <v>228.6477529452049</v>
       </c>
       <c r="U25" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24429,7 +24429,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>53.90792807428301</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>31.42897136651038</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>17.64651753167263</v>
       </c>
       <c r="S26" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>147.0595782756355</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
         <v>166.7157954483816</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>284.290259532294</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>28.34685089092562</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>17.64651753167263</v>
       </c>
       <c r="S29" t="n">
-        <v>40.103411835919</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>121.0833449967684</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24846,7 +24846,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
@@ -24855,13 +24855,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>127.2809062519456</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S31" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>29.36860931373531</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>30.98943313995562</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V32" t="n">
-        <v>57.74992936759162</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>126.8617398557772</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>167.514994197484</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,10 +25095,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>104.585910982243</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S34" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>228.6477529452049</v>
@@ -25134,7 +25134,7 @@
         <v>284.290259532294</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>283.2948374677749</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>130.112415832686</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>43.60824460261182</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H35" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,19 +25320,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>84.16027329017983</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>127.2809062519456</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>23.0634383904742</v>
@@ -25362,7 +25362,7 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S37" t="n">
-        <v>202.601877043025</v>
+        <v>42.48343903627747</v>
       </c>
       <c r="T37" t="n">
         <v>228.6477529452049</v>
@@ -25374,10 +25374,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>284.8667870776617</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>159.2066729054946</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U38" t="n">
-        <v>239.7201664784718</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>10.56600909191485</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>129.3131032989987</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>127.2809062519456</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S40" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>228.6477529452049</v>
@@ -25608,7 +25608,7 @@
         <v>284.290259532294</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
@@ -25617,7 +25617,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>8.040123077800047</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>361.7730092566115</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>17.64651753167264</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>153.2022726584912</v>
       </c>
       <c r="I43" t="n">
-        <v>127.2809062519456</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.0634383904742</v>
+        <v>23.06343839047421</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>228.6477529452049</v>
       </c>
       <c r="U43" t="n">
-        <v>201.9429740161654</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>67.65741954814411</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
@@ -25854,7 +25854,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
         <v>410.7953871538391</v>
@@ -25885,7 +25885,7 @@
         <v>317.7406176577446</v>
       </c>
       <c r="I44" t="n">
-        <v>126.8477381573318</v>
+        <v>45.19534398557823</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>133.3409877820891</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -26037,10 +26037,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7157954483816</v>
+        <v>151.5573108070981</v>
       </c>
       <c r="H46" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>127.2809062519456</v>
@@ -26073,25 +26073,25 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S46" t="n">
-        <v>162.5394602785034</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T46" t="n">
         <v>228.6477529452049</v>
       </c>
       <c r="U46" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>530166.1264847512</v>
+        <v>530166.126484751</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>530166.126484751</v>
+        <v>530166.1264847512</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>530166.126484751</v>
+        <v>530166.1264847511</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>620230.6571688274</v>
+        <v>620230.6571688276</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>620230.6571688275</v>
+        <v>620230.6571688274</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620230.6571688274</v>
+        <v>620230.6571688276</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620230.6571688276</v>
+        <v>620230.6571688274</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620230.6571688275</v>
+        <v>620230.6571688273</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>537336.8423459274</v>
       </c>
       <c r="C2" t="n">
+        <v>537336.8423459274</v>
+      </c>
+      <c r="D2" t="n">
         <v>537336.8423459275</v>
       </c>
-      <c r="D2" t="n">
-        <v>537336.8423459273</v>
-      </c>
       <c r="E2" t="n">
-        <v>353444.0843231676</v>
+        <v>353444.0843231674</v>
       </c>
       <c r="F2" t="n">
-        <v>353444.0843231673</v>
+        <v>353444.0843231675</v>
       </c>
       <c r="G2" t="n">
         <v>353444.0843231674</v>
       </c>
       <c r="H2" t="n">
-        <v>353444.0843231674</v>
+        <v>353444.0843231673</v>
       </c>
       <c r="I2" t="n">
         <v>413487.1047792184</v>
       </c>
       <c r="J2" t="n">
+        <v>413487.1047792181</v>
+      </c>
+      <c r="K2" t="n">
+        <v>413487.1047792181</v>
+      </c>
+      <c r="L2" t="n">
         <v>413487.1047792184</v>
       </c>
-      <c r="K2" t="n">
-        <v>413487.1047792186</v>
-      </c>
-      <c r="L2" t="n">
-        <v>413487.1047792185</v>
-      </c>
       <c r="M2" t="n">
-        <v>413487.1047792184</v>
+        <v>413487.1047792183</v>
       </c>
       <c r="N2" t="n">
-        <v>413487.1047792184</v>
+        <v>413487.1047792182</v>
       </c>
       <c r="O2" t="n">
-        <v>413487.1047792184</v>
+        <v>413487.1047792182</v>
       </c>
       <c r="P2" t="n">
-        <v>413487.1047792184</v>
+        <v>413487.1047792183</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27504.83665689648</v>
+        <v>27504.8366568965</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>185775.7593332931</v>
       </c>
       <c r="C4" t="n">
-        <v>185775.7593332932</v>
+        <v>185775.7593332931</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332931</v>
@@ -26444,7 +26444,7 @@
         <v>596.7911472600141</v>
       </c>
       <c r="K4" t="n">
-        <v>596.791147260014</v>
+        <v>596.7911472600141</v>
       </c>
       <c r="L4" t="n">
         <v>596.7911472600141</v>
@@ -26459,7 +26459,7 @@
         <v>596.7911472600141</v>
       </c>
       <c r="P4" t="n">
-        <v>596.791147260014</v>
+        <v>596.7911472600141</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>40720.20246230467</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="F5" t="n">
-        <v>40720.20246230467</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="G5" t="n">
-        <v>40720.20246230466</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="H5" t="n">
         <v>40720.20246230467</v>
@@ -26524,46 +26524,46 @@
         <v>109953.8636581955</v>
       </c>
       <c r="C6" t="n">
+        <v>285995.0483757228</v>
+      </c>
+      <c r="D6" t="n">
         <v>285995.048375723</v>
       </c>
-      <c r="D6" t="n">
-        <v>285995.0483757227</v>
-      </c>
       <c r="E6" t="n">
-        <v>202952.8923224902</v>
+        <v>196385.2938216772</v>
       </c>
       <c r="F6" t="n">
-        <v>312238.7589717911</v>
+        <v>305671.1604709785</v>
       </c>
       <c r="G6" t="n">
-        <v>312238.7589717912</v>
+        <v>305671.1604709784</v>
       </c>
       <c r="H6" t="n">
-        <v>312238.7589717912</v>
+        <v>305671.1604709783</v>
       </c>
       <c r="I6" t="n">
-        <v>152379.0580523068</v>
+        <v>147955.8531392101</v>
       </c>
       <c r="J6" t="n">
-        <v>217124.9135533954</v>
+        <v>212701.7086402984</v>
       </c>
       <c r="K6" t="n">
-        <v>354567.3443451728</v>
+        <v>350144.1394320755</v>
       </c>
       <c r="L6" t="n">
-        <v>354567.3443451726</v>
+        <v>350144.1394320758</v>
       </c>
       <c r="M6" t="n">
-        <v>327062.5076882761</v>
+        <v>322639.3027751792</v>
       </c>
       <c r="N6" t="n">
-        <v>354567.3443451726</v>
+        <v>350144.1394320756</v>
       </c>
       <c r="O6" t="n">
-        <v>354567.3443451725</v>
+        <v>350144.1394320756</v>
       </c>
       <c r="P6" t="n">
-        <v>354567.3443451725</v>
+        <v>350144.1394320757</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>95.0103294798887</v>
       </c>
       <c r="F3" t="n">
-        <v>95.01032947988863</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="G3" t="n">
-        <v>95.01032947988863</v>
+        <v>95.01032947988872</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988863</v>
+        <v>95.01032947988872</v>
       </c>
       <c r="I3" t="n">
         <v>285.4554322205456</v>
@@ -26776,7 +26776,7 @@
         <v>285.4554322205456</v>
       </c>
       <c r="O3" t="n">
-        <v>285.4554322205456</v>
+        <v>285.4554322205455</v>
       </c>
       <c r="P3" t="n">
         <v>285.4554322205455</v>
@@ -26798,13 +26798,13 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>635.6739684151826</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="F4" t="n">
-        <v>635.6739684151826</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="G4" t="n">
-        <v>635.6739684151825</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="H4" t="n">
         <v>635.6739684151826</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>190.4451027406569</v>
+        <v>190.4451027406568</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>110.3707671501922</v>
+        <v>110.3707671501923</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501921</v>
+        <v>110.3707671501922</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501922</v>
+        <v>110.3707671501923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>46.708608799017</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>308.5855543096421</v>
       </c>
     </row>
     <row r="3">
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>111.0577627180931</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>136.9541076681128</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27587,13 +27587,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>199.9995129451452</v>
+        <v>145.3143013849002</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -27605,7 +27605,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>37.59489914492065</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>7.479595253793178</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
@@ -27684,7 +27684,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>137.3815393613483</v>
       </c>
       <c r="T6" t="n">
-        <v>28.09477831004497</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27785,7 +27785,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>76.45534258973518</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -27830,19 +27830,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>234.498943291109</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>137.4776375977527</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>82.24795557326942</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27921,7 +27921,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27940,16 +27940,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>95.13598719576729</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27994,13 +27994,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>70.40210119838824</v>
       </c>
     </row>
     <row r="10">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>107.9671089653528</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28067,10 +28067,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>15.70763571947964</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -31840,28 +31840,28 @@
         <v>7.036142324689871</v>
       </c>
       <c r="J12" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>32.999955664727</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>44.37251283869708</v>
       </c>
       <c r="M12" t="n">
-        <v>50.47188202281291</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.08660970927058</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>12.68836060488024</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819510732859842</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H14" t="n">
-        <v>3.911656429290086</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I14" t="n">
-        <v>14.72516875285792</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J14" t="n">
-        <v>32.41761990630633</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K14" t="n">
-        <v>48.58560883850204</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L14" t="n">
-        <v>60.27474399757799</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M14" t="n">
-        <v>67.06726639712761</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N14" t="n">
-        <v>68.15248488410141</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911391</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P14" t="n">
-        <v>54.92504177736617</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.24641896531185</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730072</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504372</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T14" t="n">
-        <v>1.671990823309396</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287872</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2043618407680623</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H15" t="n">
-        <v>1.973705146365234</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689866</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J15" t="n">
-        <v>19.3077123332668</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>32.99995566472698</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.37251283869705</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M15" t="n">
-        <v>51.7806295665393</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N15" t="n">
-        <v>53.15110875309355</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O15" t="n">
-        <v>48.62288059712753</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P15" t="n">
-        <v>39.02414834806973</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.68836060488023</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S15" t="n">
-        <v>3.795931559880453</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133737</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01344485794526726</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1713301023407827</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H16" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I16" t="n">
-        <v>5.152363441302814</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J16" t="n">
-        <v>12.11303823549334</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K16" t="n">
-        <v>19.90544279922912</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L16" t="n">
-        <v>25.47211357891965</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M16" t="n">
-        <v>26.85677231511015</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N16" t="n">
-        <v>26.21817829729453</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O16" t="n">
-        <v>24.21673119267719</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P16" t="n">
-        <v>20.72159710492521</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.34655975146318</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R16" t="n">
-        <v>7.703624419795557</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S16" t="n">
-        <v>2.985816419884368</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T16" t="n">
-        <v>0.732046800910617</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009345278309497251</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3819510732859842</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H17" t="n">
-        <v>3.911656429290086</v>
+        <v>3.91165642929009</v>
       </c>
       <c r="I17" t="n">
-        <v>14.72516875285792</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J17" t="n">
-        <v>32.41761990630633</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K17" t="n">
-        <v>48.58560883850204</v>
+        <v>48.5856088385021</v>
       </c>
       <c r="L17" t="n">
-        <v>60.27474399757799</v>
+        <v>60.27474399757806</v>
       </c>
       <c r="M17" t="n">
-        <v>67.06726639712761</v>
+        <v>67.06726639712768</v>
       </c>
       <c r="N17" t="n">
-        <v>68.15248488410141</v>
+        <v>68.1524848841015</v>
       </c>
       <c r="O17" t="n">
-        <v>64.35445889911391</v>
+        <v>64.35445889911398</v>
       </c>
       <c r="P17" t="n">
-        <v>54.92504177736617</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.24641896531185</v>
+        <v>41.24641896531189</v>
       </c>
       <c r="R17" t="n">
-        <v>23.99273410730072</v>
+        <v>23.99273410730075</v>
       </c>
       <c r="S17" t="n">
-        <v>8.703710082504372</v>
+        <v>8.703710082504381</v>
       </c>
       <c r="T17" t="n">
-        <v>1.671990823309396</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03055608586287872</v>
+        <v>0.03055608586287876</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2043618407680623</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H18" t="n">
-        <v>1.973705146365234</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I18" t="n">
-        <v>7.036142324689866</v>
+        <v>7.036142324689874</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>32.99995566472698</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>44.37251283869705</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.7806295665393</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>53.15110875309355</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O18" t="n">
-        <v>48.62288059712753</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P18" t="n">
-        <v>39.02414834806973</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.08660970927055</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R18" t="n">
-        <v>12.68836060488023</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S18" t="n">
-        <v>3.795931559880453</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133737</v>
+        <v>0.8237216301133746</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01344485794526726</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1713301023407827</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H19" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I19" t="n">
-        <v>5.152363441302814</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J19" t="n">
-        <v>12.11303823549334</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K19" t="n">
-        <v>19.90544279922912</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L19" t="n">
-        <v>25.47211357891965</v>
+        <v>25.47211357891968</v>
       </c>
       <c r="M19" t="n">
-        <v>26.85677231511015</v>
+        <v>26.85677231511018</v>
       </c>
       <c r="N19" t="n">
-        <v>26.21817829729453</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O19" t="n">
-        <v>24.21673119267719</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P19" t="n">
-        <v>20.72159710492521</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.34655975146318</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R19" t="n">
-        <v>7.703624419795557</v>
+        <v>7.703624419795565</v>
       </c>
       <c r="S19" t="n">
-        <v>2.985816419884368</v>
+        <v>2.985816419884371</v>
       </c>
       <c r="T19" t="n">
-        <v>0.732046800910617</v>
+        <v>0.7320468009106178</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009345278309497251</v>
+        <v>0.009345278309497261</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3819510732859842</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H20" t="n">
-        <v>3.911656429290086</v>
+        <v>3.91165642929009</v>
       </c>
       <c r="I20" t="n">
-        <v>14.72516875285792</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J20" t="n">
-        <v>32.41761990630633</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K20" t="n">
-        <v>48.58560883850204</v>
+        <v>48.5856088385021</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757799</v>
+        <v>60.27474399757806</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712761</v>
+        <v>67.06726639712768</v>
       </c>
       <c r="N20" t="n">
-        <v>68.15248488410141</v>
+        <v>68.1524848841015</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911391</v>
+        <v>64.35445889911398</v>
       </c>
       <c r="P20" t="n">
-        <v>54.92504177736617</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.24641896531185</v>
+        <v>41.24641896531189</v>
       </c>
       <c r="R20" t="n">
-        <v>23.99273410730072</v>
+        <v>23.99273410730075</v>
       </c>
       <c r="S20" t="n">
-        <v>8.703710082504372</v>
+        <v>8.703710082504381</v>
       </c>
       <c r="T20" t="n">
-        <v>1.671990823309396</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03055608586287872</v>
+        <v>0.03055608586287876</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2043618407680623</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H21" t="n">
-        <v>1.973705146365234</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689866</v>
+        <v>7.036142324689874</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -32563,28 +32563,28 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R21" t="n">
-        <v>12.68836060488023</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S21" t="n">
-        <v>3.795931559880453</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133737</v>
+        <v>0.8237216301133746</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01344485794526726</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1713301023407827</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H22" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I22" t="n">
-        <v>5.152363441302814</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J22" t="n">
-        <v>12.11303823549334</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K22" t="n">
-        <v>19.90544279922912</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L22" t="n">
-        <v>25.47211357891965</v>
+        <v>25.47211357891968</v>
       </c>
       <c r="M22" t="n">
-        <v>26.85677231511015</v>
+        <v>26.85677231511018</v>
       </c>
       <c r="N22" t="n">
-        <v>26.21817829729453</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O22" t="n">
-        <v>24.21673119267719</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P22" t="n">
-        <v>20.72159710492521</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.34655975146318</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795557</v>
+        <v>7.703624419795565</v>
       </c>
       <c r="S22" t="n">
-        <v>2.985816419884368</v>
+        <v>2.985816419884371</v>
       </c>
       <c r="T22" t="n">
-        <v>0.732046800910617</v>
+        <v>0.7320468009106178</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009345278309497251</v>
+        <v>0.009345278309497261</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,28 +32788,28 @@
         <v>21.13985983897437</v>
       </c>
       <c r="J24" t="n">
-        <v>58.00939118361106</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>133.3157657743218</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>155.5732105601973</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>146.0858569025277</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R24" t="n">
         <v>38.12176508032118</v>
@@ -33025,7 +33025,7 @@
         <v>21.13985983897437</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>33.44281091453426</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -33037,16 +33037,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>146.0858569025277</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>117.2467793209256</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R27" t="n">
         <v>38.12176508032118</v>
@@ -33262,7 +33262,7 @@
         <v>21.13985983897437</v>
       </c>
       <c r="J30" t="n">
-        <v>58.00939118361106</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -33274,13 +33274,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>146.0858569025277</v>
       </c>
       <c r="P30" t="n">
-        <v>34.87282178921214</v>
+        <v>117.2467793209256</v>
       </c>
       <c r="Q30" t="n">
         <v>78.37636697496943</v>
@@ -33499,7 +33499,7 @@
         <v>21.13985983897437</v>
       </c>
       <c r="J33" t="n">
-        <v>58.00939118361106</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -33511,13 +33511,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O33" t="n">
         <v>146.0858569025277</v>
       </c>
       <c r="P33" t="n">
-        <v>7.659130346160566</v>
+        <v>117.2467793209256</v>
       </c>
       <c r="Q33" t="n">
         <v>78.37636697496943</v>
@@ -33736,10 +33736,10 @@
         <v>21.13985983897437</v>
       </c>
       <c r="J36" t="n">
-        <v>58.00939118361106</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>99.14728913267761</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -33973,19 +33973,19 @@
         <v>21.13985983897437</v>
       </c>
       <c r="J39" t="n">
-        <v>58.00939118361106</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>133.3157657743218</v>
       </c>
       <c r="M39" t="n">
         <v>155.5732105601973</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34128,16 +34128,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I41" t="n">
-        <v>44.24128864596014</v>
+        <v>44.24128864596013</v>
       </c>
       <c r="J41" t="n">
-        <v>97.39768036353179</v>
+        <v>97.39768036353178</v>
       </c>
       <c r="K41" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L41" t="n">
-        <v>181.0934999804774</v>
+        <v>181.0934999804773</v>
       </c>
       <c r="M41" t="n">
         <v>201.5014117101341</v>
@@ -34149,22 +34149,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P41" t="n">
-        <v>165.0204943622301</v>
+        <v>165.02049436223</v>
       </c>
       <c r="Q41" t="n">
-        <v>123.9235188189204</v>
+        <v>123.9235188189203</v>
       </c>
       <c r="R41" t="n">
-        <v>72.08538610743256</v>
+        <v>72.08538610743254</v>
       </c>
       <c r="S41" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T41" t="n">
-        <v>5.023441827318344</v>
+        <v>5.023441827318342</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0918047621211804</v>
+        <v>0.09180476212118037</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6139984768517396</v>
+        <v>0.6139984768517394</v>
       </c>
       <c r="H42" t="n">
-        <v>5.929932658015486</v>
+        <v>5.929932658015484</v>
       </c>
       <c r="I42" t="n">
-        <v>21.13985983897437</v>
+        <v>21.13985983897436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -34219,31 +34219,31 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>155.5732105601973</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>146.0858569025277</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>117.2467793209256</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.12176508032118</v>
+        <v>38.12176508032117</v>
       </c>
       <c r="S42" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T42" t="n">
-        <v>2.474844737836616</v>
+        <v>2.474844737836615</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04039463663498288</v>
+        <v>0.04039463663498287</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,43 +34280,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5147556974468854</v>
+        <v>0.5147556974468853</v>
       </c>
       <c r="H43" t="n">
-        <v>4.576646110027766</v>
+        <v>4.576646110027765</v>
       </c>
       <c r="I43" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J43" t="n">
-        <v>36.3932278094948</v>
+        <v>36.39322780949479</v>
       </c>
       <c r="K43" t="n">
-        <v>59.80525284882903</v>
+        <v>59.80525284882902</v>
       </c>
       <c r="L43" t="n">
-        <v>76.53013341860331</v>
+        <v>76.5301334186033</v>
       </c>
       <c r="M43" t="n">
-        <v>80.69029537342404</v>
+        <v>80.69029537342402</v>
       </c>
       <c r="N43" t="n">
-        <v>78.77166050112207</v>
+        <v>78.77166050112206</v>
       </c>
       <c r="O43" t="n">
-        <v>72.75837803549251</v>
+        <v>72.7583780354925</v>
       </c>
       <c r="P43" t="n">
-        <v>62.257361807576</v>
+        <v>62.25736180757599</v>
       </c>
       <c r="Q43" t="n">
-        <v>43.10377026530238</v>
+        <v>43.10377026530237</v>
       </c>
       <c r="R43" t="n">
-        <v>23.14528799611177</v>
+        <v>23.14528799611176</v>
       </c>
       <c r="S43" t="n">
-        <v>8.970787927324354</v>
+        <v>8.970787927324352</v>
       </c>
       <c r="T43" t="n">
         <v>2.199410707273055</v>
@@ -34371,7 +34371,7 @@
         <v>97.39768036353178</v>
       </c>
       <c r="K44" t="n">
-        <v>145.9738751209014</v>
+        <v>145.9738751209016</v>
       </c>
       <c r="L44" t="n">
         <v>181.0934999804773</v>
@@ -34447,28 +34447,28 @@
         <v>21.13985983897436</v>
       </c>
       <c r="J45" t="n">
-        <v>58.00939118361106</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>133.3157657743218</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>155.5732105601973</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O45" t="n">
-        <v>115.8594486111111</v>
+        <v>146.0858569025277</v>
       </c>
       <c r="P45" t="n">
         <v>117.2467793209256</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>78.37636697496941</v>
       </c>
       <c r="R45" t="n">
         <v>38.12176508032117</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>200.061099507456</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
@@ -34798,7 +34798,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
@@ -35026,16 +35026,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>516.4299455789112</v>
+        <v>372.3404753690708</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>76.13858667773572</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>80.17048660913161</v>
+        <v>43.50691336981554</v>
       </c>
       <c r="K12" t="n">
-        <v>264.8085946144125</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M12" t="n">
-        <v>540.4045623361729</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N12" t="n">
-        <v>516.4299455789112</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O12" t="n">
-        <v>396.1615664486372</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,13 +35658,13 @@
         <v>464.2785454406508</v>
       </c>
       <c r="N14" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O14" t="n">
         <v>372.4398977605624</v>
       </c>
       <c r="P14" t="n">
-        <v>285.3865533491371</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q14" t="n">
         <v>136.6325338001977</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>43.50691336981554</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>413.8895281620462</v>
@@ -35743,10 +35743,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P15" t="n">
-        <v>344.1715415558447</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>10.08770537991123</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>53.84906678371742</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L16" t="n">
         <v>127.0954261044343</v>
@@ -35822,7 +35822,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P16" t="n">
-        <v>84.32612612324621</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35892,16 +35892,16 @@
         <v>411.674110750049</v>
       </c>
       <c r="M17" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N17" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O17" t="n">
         <v>372.4398977605624</v>
       </c>
       <c r="P17" t="n">
-        <v>285.3865533491371</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q17" t="n">
         <v>136.6325338001977</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>17.42030366054539</v>
+        <v>113.5734460657811</v>
       </c>
       <c r="L18" t="n">
-        <v>413.8895281620462</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>541.7133098798994</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
         <v>569.5810543320048</v>
@@ -35980,7 +35980,7 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P18" t="n">
-        <v>344.1715415558447</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q18" t="n">
         <v>185.4518923209819</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>53.84906678371742</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L19" t="n">
         <v>127.0954261044343</v>
@@ -36059,7 +36059,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P19" t="n">
-        <v>84.32612612324621</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36129,16 +36129,16 @@
         <v>411.674110750049</v>
       </c>
       <c r="M20" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N20" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O20" t="n">
         <v>372.4398977605624</v>
       </c>
       <c r="P20" t="n">
-        <v>285.3865533491371</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q20" t="n">
         <v>136.6325338001977</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>48.6495545236578</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496855</v>
+        <v>113.5734460657811</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36211,16 +36211,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>516.4299455789112</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O21" t="n">
-        <v>396.1615664486372</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P21" t="n">
-        <v>305.147393207775</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>53.84906678371742</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L22" t="n">
         <v>127.0954261044343</v>
@@ -36296,7 +36296,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P22" t="n">
-        <v>84.32612612324621</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>231.8086389496855</v>
+        <v>330.9559280823631</v>
       </c>
       <c r="L24" t="n">
-        <v>369.5170153233491</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M24" t="n">
-        <v>489.93268031336</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>390.541271085614</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>142.5957798031045</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>94.30558519039906</v>
       </c>
       <c r="K27" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N27" t="n">
-        <v>510.8096502158882</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O27" t="n">
-        <v>396.1615664486372</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P27" t="n">
-        <v>305.147393207775</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.3652826117113</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>118.8721654594759</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L30" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>489.93268031336</v>
+        <v>352.4296265540736</v>
       </c>
       <c r="N30" t="n">
-        <v>516.4299455789112</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O30" t="n">
-        <v>396.1615664486372</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P30" t="n">
-        <v>340.0202149969871</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K33" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L33" t="n">
-        <v>369.5170153233491</v>
+        <v>291.5668522782088</v>
       </c>
       <c r="M33" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>516.4299455789112</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O33" t="n">
         <v>542.2474233511649</v>
       </c>
       <c r="P33" t="n">
-        <v>312.8065235539356</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L36" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>489.93268031336</v>
+        <v>291.5668522782088</v>
       </c>
       <c r="N36" t="n">
         <v>676.1207161001012</v>
       </c>
       <c r="O36" t="n">
-        <v>504.7776428048953</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P36" t="n">
         <v>422.3941725287006</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.8086389496855</v>
+        <v>330.9559280823631</v>
       </c>
       <c r="L39" t="n">
-        <v>369.5170153233491</v>
+        <v>176.2564759790671</v>
       </c>
       <c r="M39" t="n">
         <v>645.5058908735573</v>
       </c>
       <c r="N39" t="n">
-        <v>514.6017222674021</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>165.3255693107978</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>369.5170153233491</v>
+        <v>176.7995121263613</v>
       </c>
       <c r="M42" t="n">
-        <v>489.93268031336</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N42" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
-        <v>396.1615664486372</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P42" t="n">
-        <v>305.147393207775</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q42" t="n">
         <v>159.3652826117113</v>
@@ -37958,7 +37958,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.951802332454527</v>
+        <v>4.95180233245452</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>170.1234826592951</v>
       </c>
       <c r="K44" t="n">
-        <v>388.5399074893688</v>
+        <v>388.539907489369</v>
       </c>
       <c r="L44" t="n">
         <v>532.4928667329483</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>502.8327810976709</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>645.5058908735573</v>
       </c>
       <c r="N45" t="n">
-        <v>516.4299455789112</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P45" t="n">
         <v>422.3941725287006</v>
       </c>
       <c r="Q45" t="n">
-        <v>143.7707980418807</v>
+        <v>176.4740242168826</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
